--- a/wyniki/non_parametric_tests_results.xlsx
+++ b/wyniki/non_parametric_tests_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uczelnia\magister\PRACA DYPLOMOWA\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDC35D-C081-4B6D-A9DC-1F07607353D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC208330-62DD-47DA-AF69-E6D5431001A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kruskal_Non_AI_Results" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -458,7 +462,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +487,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>6.2993262752664078E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.80182602590209739</v>
       </c>
     </row>
@@ -494,10 +498,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.62311876075732153</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.42989069062377999</v>
       </c>
     </row>
@@ -505,10 +509,10 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.47235218658893052</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.49190703838576683</v>
       </c>
     </row>
@@ -516,10 +520,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>8.5901063878835462</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3.379942594673981E-3</v>
       </c>
     </row>
@@ -527,10 +531,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5.2403130148270316</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2.2069302811844931E-2</v>
       </c>
     </row>
@@ -538,10 +542,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.0117874396135349</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.31447500431875652</v>
       </c>
     </row>
@@ -549,10 +553,10 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.27819111299793892</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.59788928364948868</v>
       </c>
     </row>
@@ -560,10 +564,10 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1.504956836535793</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.21991024407300819</v>
       </c>
     </row>
@@ -571,10 +575,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.77216292134832887</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.37954876590877629</v>
       </c>
     </row>
@@ -582,10 +586,10 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.4383547325855179</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.2304057661060866</v>
       </c>
     </row>
@@ -593,10 +597,10 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>5.4710546361068139E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.81506039541847342</v>
       </c>
     </row>
@@ -604,10 +608,10 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>4.1177653997378894</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4.2435094883570029E-2</v>
       </c>
     </row>
@@ -615,10 +619,10 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.49608206785889708</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.48122670480444762</v>
       </c>
     </row>
@@ -626,10 +630,10 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.37550722623680821</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.54001755529235973</v>
       </c>
     </row>
@@ -637,10 +641,10 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1.553498957432758</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0.21261964246451939</v>
       </c>
     </row>
@@ -648,10 +652,10 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2.3564713611311459</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>0.1247641179749891</v>
       </c>
     </row>
@@ -659,10 +663,10 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.14258108762306379</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.70572842619037757</v>
       </c>
     </row>
@@ -670,10 +674,10 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.53862203285281818</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.46300436237369302</v>
       </c>
     </row>
@@ -681,10 +685,10 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1.885407066052234</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.1697208698882213</v>
       </c>
     </row>
@@ -698,7 +702,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,10 +727,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5.1354052308685967</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2.3442613904859189E-2</v>
       </c>
     </row>
@@ -734,10 +738,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2.0809570176658729</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.14914664043274731</v>
       </c>
     </row>
@@ -745,10 +749,10 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.34882322713259079</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.55478002969345697</v>
       </c>
     </row>
@@ -756,10 +760,10 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>8.6213688426674331</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3.3224207850129119E-3</v>
       </c>
     </row>
@@ -767,10 +771,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5.5012765463631312E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.81455957169636162</v>
       </c>
     </row>
@@ -778,10 +782,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.9594484120605431</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.16157232208633809</v>
       </c>
     </row>
@@ -789,10 +793,10 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2.920658059148591E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.9569008152300349</v>
       </c>
     </row>
@@ -800,10 +804,10 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2.6099917290814729</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.1061923162407469</v>
       </c>
     </row>
@@ -811,10 +815,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>3.873955622517459</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>4.9040811874903147E-2</v>
       </c>
     </row>
@@ -822,10 +826,10 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.411540860885854</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.2348007699269696</v>
       </c>
     </row>
@@ -833,10 +837,10 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.4704320557491381</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.49278846983752572</v>
       </c>
     </row>
@@ -844,10 +848,10 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3.4952626728110681</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>6.15446440162968E-2</v>
       </c>
     </row>
@@ -855,10 +859,10 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2.940200348432052</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>8.6400015799022303E-2</v>
       </c>
     </row>
@@ -866,10 +870,10 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1.54023512646955</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.21458281045232411</v>
       </c>
     </row>
@@ -877,10 +881,10 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.89976533059267949</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0.34284464242760032</v>
       </c>
     </row>
@@ -888,10 +892,10 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>5.9753050704817969</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1.4507571630184551E-2</v>
       </c>
     </row>
@@ -899,10 +903,10 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>3.9752018633540489</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>4.6174918412698947E-2</v>
       </c>
     </row>
@@ -910,10 +914,10 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1.5360714285714381</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.21520351368743021</v>
       </c>
     </row>
@@ -921,10 +925,10 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>3.5570652173913051</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>5.9292481897753282E-2</v>
       </c>
     </row>
